--- a/Code/Results/Cases/Case_7_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.42579167363286</v>
+        <v>24.59914660114032</v>
       </c>
       <c r="C2">
-        <v>17.71964190834627</v>
+        <v>17.91427503094414</v>
       </c>
       <c r="D2">
-        <v>3.991380576521917</v>
+        <v>7.855276361909105</v>
       </c>
       <c r="E2">
-        <v>9.406308944188314</v>
+        <v>11.21727282172399</v>
       </c>
       <c r="F2">
-        <v>39.03685849861573</v>
+        <v>21.7458507314483</v>
       </c>
       <c r="G2">
-        <v>2.08384511495763</v>
+        <v>2.074738317228585</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.731272560177056</v>
+        <v>6.317550898356937</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.17802490128099</v>
+        <v>14.55884088963547</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.6878741928492</v>
+        <v>22.94772181360853</v>
       </c>
       <c r="C3">
-        <v>16.46231711642773</v>
+        <v>16.76743049926761</v>
       </c>
       <c r="D3">
-        <v>3.850663594031171</v>
+        <v>7.482191502636586</v>
       </c>
       <c r="E3">
-        <v>9.028012544699802</v>
+        <v>10.72698244621897</v>
       </c>
       <c r="F3">
-        <v>37.47313938573696</v>
+        <v>21.31595244743732</v>
       </c>
       <c r="G3">
-        <v>2.095779860987807</v>
+        <v>2.081340434183186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.602184177460922</v>
+        <v>6.2070224534457</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.19266675007131</v>
+        <v>14.5357021175332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56719472692422</v>
+        <v>21.87436244168807</v>
       </c>
       <c r="C4">
-        <v>15.65067140265205</v>
+        <v>16.02345263242452</v>
       </c>
       <c r="D4">
-        <v>3.762753460821168</v>
+        <v>7.246040869018927</v>
       </c>
       <c r="E4">
-        <v>8.795409113455227</v>
+        <v>10.42085636441161</v>
       </c>
       <c r="F4">
-        <v>36.53222416863642</v>
+        <v>21.08051742613811</v>
       </c>
       <c r="G4">
-        <v>2.103251040919873</v>
+        <v>2.085506311366049</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.527255082230845</v>
+        <v>6.142273431231563</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.60819271389029</v>
+        <v>14.54654285706749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09683904522935</v>
+        <v>21.42192784252063</v>
       </c>
       <c r="C5">
-        <v>15.30977951236271</v>
+        <v>15.71025895122019</v>
       </c>
       <c r="D5">
-        <v>3.726594717246175</v>
+        <v>7.148138294748277</v>
       </c>
       <c r="E5">
-        <v>8.70063088404746</v>
+        <v>10.29499464581142</v>
       </c>
       <c r="F5">
-        <v>36.15382001383963</v>
+        <v>20.99163027386302</v>
       </c>
       <c r="G5">
-        <v>2.10633503180492</v>
+        <v>2.087233116315934</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.497788292560299</v>
+        <v>6.11667791222933</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.37520041397306</v>
+        <v>14.55692064727647</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01790603872806</v>
+        <v>21.34589065484483</v>
       </c>
       <c r="C6">
-        <v>15.25255749224515</v>
+        <v>15.65764854262176</v>
       </c>
       <c r="D6">
-        <v>3.720571797165962</v>
+        <v>7.131784403234581</v>
       </c>
       <c r="E6">
-        <v>8.684896614456068</v>
+        <v>10.27403348699302</v>
       </c>
       <c r="F6">
-        <v>36.09129642562209</v>
+        <v>20.97729259075141</v>
       </c>
       <c r="G6">
-        <v>2.10684960159599</v>
+        <v>2.087521640643649</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.492959195953205</v>
+        <v>6.112475690984328</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.33682625429177</v>
+        <v>14.5589938074787</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.56090693235643</v>
+        <v>21.86832174529757</v>
       </c>
       <c r="C7">
-        <v>15.64611528816512</v>
+        <v>16.01926934635692</v>
       </c>
       <c r="D7">
-        <v>3.762267102813459</v>
+        <v>7.244727120680627</v>
       </c>
       <c r="E7">
-        <v>8.794130728753558</v>
+        <v>10.41916321902889</v>
       </c>
       <c r="F7">
-        <v>36.52710023517544</v>
+        <v>21.07929028024095</v>
       </c>
       <c r="G7">
-        <v>2.103292468768126</v>
+        <v>2.085529480276464</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.526853389227413</v>
+        <v>6.141925033671447</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.60502946497643</v>
+        <v>14.54665913618855</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.83755599975044</v>
+        <v>24.04199716939258</v>
       </c>
       <c r="C8">
-        <v>17.29423723493556</v>
+        <v>17.52709727240834</v>
       </c>
       <c r="D8">
-        <v>3.943199738932002</v>
+        <v>7.728165297461373</v>
       </c>
       <c r="E8">
-        <v>9.275990219444759</v>
+        <v>11.04936874300118</v>
       </c>
       <c r="F8">
-        <v>38.49380052420911</v>
+        <v>21.59164074965907</v>
       </c>
       <c r="G8">
-        <v>2.087932648623527</v>
+        <v>2.076992054779649</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.685850371372553</v>
+        <v>6.27879838727675</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.83401704319654</v>
+        <v>14.54546325489264</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.88695303267611</v>
+        <v>27.83819214492261</v>
       </c>
       <c r="C9">
-        <v>20.22009850743524</v>
+        <v>20.16912330486191</v>
       </c>
       <c r="D9">
-        <v>4.284369977294715</v>
+        <v>8.616145083884033</v>
       </c>
       <c r="E9">
-        <v>10.21525569898501</v>
+        <v>12.23874297837118</v>
       </c>
       <c r="F9">
-        <v>42.49785327483271</v>
+        <v>22.82636967746522</v>
       </c>
       <c r="G9">
-        <v>2.058776184889048</v>
+        <v>2.061092918715988</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.033103368219702</v>
+        <v>6.571599015594481</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.40761802288669</v>
+        <v>14.75635455324574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.6252247881806</v>
+        <v>30.34984596607985</v>
       </c>
       <c r="C10">
-        <v>22.19619075593092</v>
+        <v>21.92068647866715</v>
       </c>
       <c r="D10">
-        <v>4.524940970737804</v>
+        <v>9.227888667751408</v>
       </c>
       <c r="E10">
-        <v>10.89940252384365</v>
+        <v>13.07772807690909</v>
       </c>
       <c r="F10">
-        <v>45.52947852756554</v>
+        <v>23.8769934215589</v>
       </c>
       <c r="G10">
-        <v>2.037670541599597</v>
+        <v>2.049854913203019</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.311671059846748</v>
+        <v>6.801158123475139</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.40257420435174</v>
+        <v>15.05981216847431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.82378179523073</v>
+        <v>31.43381266743743</v>
       </c>
       <c r="C11">
-        <v>23.06082316467317</v>
+        <v>22.67708922657915</v>
       </c>
       <c r="D11">
-        <v>4.631948153206109</v>
+        <v>9.496799713704425</v>
       </c>
       <c r="E11">
-        <v>11.20932789447383</v>
+        <v>13.45090164306223</v>
       </c>
       <c r="F11">
-        <v>46.93052620177031</v>
+        <v>24.38642607936302</v>
       </c>
       <c r="G11">
-        <v>2.028066091848451</v>
+        <v>2.044821583510183</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.444019016616068</v>
+        <v>6.908649533934397</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.33506245101527</v>
+        <v>15.23363105390782</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.27128591715049</v>
+        <v>31.83599252390109</v>
       </c>
       <c r="C12">
-        <v>23.38362474497275</v>
+        <v>22.95778063971031</v>
       </c>
       <c r="D12">
-        <v>4.672107775596181</v>
+        <v>9.597251283669962</v>
       </c>
       <c r="E12">
-        <v>11.32653609054787</v>
+        <v>13.59094132288661</v>
       </c>
       <c r="F12">
-        <v>47.46460601283162</v>
+        <v>24.58387760043594</v>
       </c>
       <c r="G12">
-        <v>2.024421636056152</v>
+        <v>2.042925395489922</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.495001790173244</v>
+        <v>6.949789759263801</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>33.69207298978724</v>
+        <v>15.30485083539183</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.17518376176958</v>
+        <v>31.74974264312443</v>
       </c>
       <c r="C13">
-        <v>23.31430342939289</v>
+        <v>22.89758294727145</v>
       </c>
       <c r="D13">
-        <v>4.663474892225327</v>
+        <v>9.575678957884087</v>
       </c>
       <c r="E13">
-        <v>11.30129920193515</v>
+        <v>13.560838530736</v>
       </c>
       <c r="F13">
-        <v>47.34941736764574</v>
+        <v>24.54115074855963</v>
       </c>
       <c r="G13">
-        <v>2.025206989053324</v>
+        <v>2.043333362164665</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.483982197617515</v>
+        <v>6.94091015565481</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.61500493169483</v>
+        <v>15.28926851385159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.86072320717261</v>
+        <v>31.46706570937026</v>
       </c>
       <c r="C14">
-        <v>23.08747078533411</v>
+        <v>22.70029654400461</v>
       </c>
       <c r="D14">
-        <v>4.635259404599043</v>
+        <v>9.505091704599385</v>
       </c>
       <c r="E14">
-        <v>11.21897347016123</v>
+        <v>13.46244854071115</v>
       </c>
       <c r="F14">
-        <v>46.97439168117864</v>
+        <v>24.40257946872206</v>
       </c>
       <c r="G14">
-        <v>2.02776645349806</v>
+        <v>2.044665395253226</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.448195682140272</v>
+        <v>6.912025455172982</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.36435364918489</v>
+        <v>15.23938079274504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.66729147618218</v>
+        <v>31.29284171330141</v>
       </c>
       <c r="C15">
-        <v>22.94793824923009</v>
+        <v>22.57870727539004</v>
       </c>
       <c r="D15">
-        <v>4.617929252320335</v>
+        <v>9.461674628356947</v>
       </c>
       <c r="E15">
-        <v>11.16852803957579</v>
+        <v>13.40201479859959</v>
       </c>
       <c r="F15">
-        <v>46.74515189081177</v>
+        <v>24.31829220647518</v>
       </c>
       <c r="G15">
-        <v>2.029333003022213</v>
+        <v>2.045482536105558</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.426390027193758</v>
+        <v>6.894389360189909</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.21134109948628</v>
+        <v>15.20953325123197</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.54598222661698</v>
+        <v>30.27783814528023</v>
       </c>
       <c r="C16">
-        <v>22.13902085385701</v>
+        <v>21.87044647712816</v>
       </c>
       <c r="D16">
-        <v>4.51789770574818</v>
+        <v>9.210123135200938</v>
       </c>
       <c r="E16">
-        <v>10.87912418660562</v>
+        <v>13.05316460338534</v>
       </c>
       <c r="F16">
-        <v>45.43838686790941</v>
+        <v>23.84433556203564</v>
       </c>
       <c r="G16">
-        <v>2.038297574232031</v>
+        <v>2.050185313664536</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.303139545454816</v>
+        <v>6.794194473960657</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.3421600953714</v>
+        <v>15.04919486556996</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.84630608942217</v>
+        <v>29.64024956130238</v>
       </c>
       <c r="C17">
-        <v>21.63420291041692</v>
+        <v>21.42565065102717</v>
       </c>
       <c r="D17">
-        <v>4.45589844108676</v>
+        <v>9.053377596281619</v>
       </c>
       <c r="E17">
-        <v>10.70126604889483</v>
+        <v>12.83693930292047</v>
       </c>
       <c r="F17">
-        <v>44.64256677609254</v>
+        <v>23.56165406027969</v>
       </c>
       <c r="G17">
-        <v>2.043791537208468</v>
+        <v>2.053089480499163</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.229006454061264</v>
+        <v>6.733508551210488</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.81552567005226</v>
+        <v>14.96018399127211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.43941029161525</v>
+        <v>29.26800177126713</v>
       </c>
       <c r="C18">
-        <v>21.34059507344123</v>
+        <v>21.16600944501437</v>
       </c>
       <c r="D18">
-        <v>4.420009725501536</v>
+        <v>8.962340463243528</v>
       </c>
       <c r="E18">
-        <v>10.59884100031587</v>
+        <v>12.7117754916986</v>
       </c>
       <c r="F18">
-        <v>44.18686573590828</v>
+        <v>23.40202758419362</v>
       </c>
       <c r="G18">
-        <v>2.046951673937481</v>
+        <v>2.054767404765714</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.186892540711029</v>
+        <v>6.698892167917522</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.51494558756285</v>
+        <v>14.91234098358174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.30086471266781</v>
+        <v>29.14101247089506</v>
       </c>
       <c r="C19">
-        <v>21.24061736257454</v>
+        <v>21.0774437510883</v>
       </c>
       <c r="D19">
-        <v>4.407819681016956</v>
+        <v>8.931366639865477</v>
       </c>
       <c r="E19">
-        <v>10.56413953396128</v>
+        <v>12.66926226433332</v>
       </c>
       <c r="F19">
-        <v>44.03291365040517</v>
+        <v>23.34848961145579</v>
       </c>
       <c r="G19">
-        <v>2.048021864424504</v>
+        <v>2.05533685765557</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.172722236687965</v>
+        <v>6.687221407203178</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.41356628898196</v>
+        <v>14.89671000454782</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.92124668212715</v>
+        <v>29.70869270606935</v>
       </c>
       <c r="C20">
-        <v>21.68827583689913</v>
+        <v>21.47339342010197</v>
       </c>
       <c r="D20">
-        <v>4.46252211492816</v>
+        <v>9.07015489442289</v>
       </c>
       <c r="E20">
-        <v>10.72021222551951</v>
+        <v>12.86003975899552</v>
       </c>
       <c r="F20">
-        <v>44.7270705056778</v>
+        <v>23.59143910253785</v>
       </c>
       <c r="G20">
-        <v>2.043206726705299</v>
+        <v>2.052779558848854</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.236843296382195</v>
+        <v>6.739938851278149</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.87134419313924</v>
+        <v>14.96931033507796</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.95325704197822</v>
+        <v>31.55031881417588</v>
       </c>
       <c r="C21">
-        <v>23.15421956526485</v>
+        <v>22.75839960545191</v>
       </c>
       <c r="D21">
-        <v>4.643556857760061</v>
+        <v>9.525862515673964</v>
       </c>
       <c r="E21">
-        <v>11.24315829573686</v>
+        <v>13.49138294286294</v>
       </c>
       <c r="F21">
-        <v>47.08444605980726</v>
+        <v>24.44315789048209</v>
       </c>
       <c r="G21">
-        <v>2.027014940041149</v>
+        <v>2.044273890973495</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.458683041997902</v>
+        <v>6.920497797889332</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.43786722027675</v>
+        <v>15.25388561792063</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.24443704234233</v>
+        <v>32.70564551717966</v>
       </c>
       <c r="C22">
-        <v>24.08557360588079</v>
+        <v>23.56479397607783</v>
       </c>
       <c r="D22">
-        <v>4.759764502762584</v>
+        <v>9.815648070815921</v>
       </c>
       <c r="E22">
-        <v>11.5840748911848</v>
+        <v>13.89657071078575</v>
       </c>
       <c r="F22">
-        <v>48.64602604696175</v>
+        <v>25.0262785955648</v>
       </c>
       <c r="G22">
-        <v>2.016385149662493</v>
+        <v>2.038771408820421</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.608749609456153</v>
+        <v>7.041041978775181</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.48462666551955</v>
+        <v>15.47143777082518</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.5585311965545</v>
+        <v>32.09339850705522</v>
       </c>
       <c r="C23">
-        <v>23.59082123326583</v>
+        <v>23.13744100526969</v>
       </c>
       <c r="D23">
-        <v>4.697937583538098</v>
+        <v>9.661727665653881</v>
       </c>
       <c r="E23">
-        <v>11.40218097383781</v>
+        <v>13.68100692398508</v>
       </c>
       <c r="F23">
-        <v>47.81049856467215</v>
+        <v>24.71262931848451</v>
       </c>
       <c r="G23">
-        <v>2.022065409189684</v>
+        <v>2.04170355786591</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.528168881425061</v>
+        <v>6.976473954144848</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>33.92371977329199</v>
+        <v>15.35236041907414</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.88738053112593</v>
+        <v>29.67776729207279</v>
       </c>
       <c r="C24">
-        <v>21.66384002204421</v>
+        <v>21.45182113578824</v>
       </c>
       <c r="D24">
-        <v>4.459528312562024</v>
+        <v>9.062572747369375</v>
       </c>
       <c r="E24">
-        <v>10.7116471969551</v>
+        <v>12.84959869548741</v>
       </c>
       <c r="F24">
-        <v>44.68886070652729</v>
+        <v>23.57796428120242</v>
       </c>
       <c r="G24">
-        <v>2.043471114087834</v>
+        <v>2.052919648523068</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.233298687369445</v>
+        <v>6.737030862604894</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.84610184200602</v>
+        <v>14.96517396073976</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.83437423274156</v>
+        <v>26.86045458120171</v>
       </c>
       <c r="C25">
-        <v>19.46007985931353</v>
+        <v>19.4878834287348</v>
       </c>
       <c r="D25">
-        <v>4.19374133133809</v>
+        <v>8.382827796017851</v>
       </c>
       <c r="E25">
-        <v>9.962107039166499</v>
+        <v>11.92271784811379</v>
       </c>
       <c r="F25">
-        <v>41.39924580943856</v>
+        <v>22.46729659434857</v>
       </c>
       <c r="G25">
-        <v>2.066586622575671</v>
+        <v>2.065310819641762</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.935196731687535</v>
+        <v>6.48982261930911</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.69362598724363</v>
+        <v>14.6744886915567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.59914660114032</v>
+        <v>24.65633769049985</v>
       </c>
       <c r="C2">
-        <v>17.91427503094414</v>
+        <v>18.17259344724918</v>
       </c>
       <c r="D2">
-        <v>7.855276361909105</v>
+        <v>9.376232164001522</v>
       </c>
       <c r="E2">
-        <v>11.21727282172399</v>
+        <v>13.22927872956998</v>
       </c>
       <c r="F2">
-        <v>21.7458507314483</v>
+        <v>19.03188205400313</v>
       </c>
       <c r="G2">
-        <v>2.074738317228585</v>
+        <v>17.69152437969325</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.362774708982709</v>
       </c>
       <c r="J2">
-        <v>6.317550898356937</v>
+        <v>7.644362570557077</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.708004405670154</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.516152389284972</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +463,48 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.55884088963547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.9661899477213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.94772181360853</v>
+        <v>23.06165341915193</v>
       </c>
       <c r="C3">
-        <v>16.76743049926761</v>
+        <v>17.02848681371148</v>
       </c>
       <c r="D3">
-        <v>7.482191502636586</v>
+        <v>8.951503824499191</v>
       </c>
       <c r="E3">
-        <v>10.72698244621897</v>
+        <v>12.65768452471069</v>
       </c>
       <c r="F3">
-        <v>21.31595244743732</v>
+        <v>18.67498302568586</v>
       </c>
       <c r="G3">
-        <v>2.081340434183186</v>
+        <v>17.35968497753274</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.134677514772986</v>
       </c>
       <c r="J3">
-        <v>6.2070224534457</v>
+        <v>7.712250278375787</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.08529219613439</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.316166601770881</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +513,48 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.5357021175332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.98843379115279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.87436244168807</v>
+        <v>22.02388958946491</v>
       </c>
       <c r="C4">
-        <v>16.02345263242452</v>
+        <v>16.28526082498782</v>
       </c>
       <c r="D4">
-        <v>7.246040869018927</v>
+        <v>8.680594047614679</v>
       </c>
       <c r="E4">
-        <v>10.42085636441161</v>
+        <v>12.29321621849582</v>
       </c>
       <c r="F4">
-        <v>21.08051742613811</v>
+        <v>18.46707405724132</v>
       </c>
       <c r="G4">
-        <v>2.085506311366049</v>
+        <v>17.18054654251094</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.989630156044552</v>
       </c>
       <c r="J4">
-        <v>6.142273431231563</v>
+        <v>7.75928369710126</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.32387624181625</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.190023159676365</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +563,48 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.54654285706749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.01486205927931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.42192784252063</v>
+        <v>21.58623279517504</v>
       </c>
       <c r="C5">
-        <v>15.71025895122019</v>
+        <v>15.97218200069655</v>
       </c>
       <c r="D5">
-        <v>7.148138294748277</v>
+        <v>8.567755437342663</v>
       </c>
       <c r="E5">
-        <v>10.29499464581142</v>
+        <v>12.14141898218434</v>
       </c>
       <c r="F5">
-        <v>20.99163027386302</v>
+        <v>18.38519835983343</v>
       </c>
       <c r="G5">
-        <v>2.087233116315934</v>
+        <v>17.11363167951841</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.92924688040137</v>
       </c>
       <c r="J5">
-        <v>6.11667791222933</v>
+        <v>7.779741147448664</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.42284663839058</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.137809491439935</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +613,48 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.55692064727647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.02869521573091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.34589065484483</v>
+        <v>21.5126684815514</v>
       </c>
       <c r="C6">
-        <v>15.65764854262176</v>
+        <v>15.91958039402103</v>
       </c>
       <c r="D6">
-        <v>7.131784403234581</v>
+        <v>8.548874673197146</v>
       </c>
       <c r="E6">
-        <v>10.27403348699302</v>
+        <v>12.116019436989</v>
       </c>
       <c r="F6">
-        <v>20.97729259075141</v>
+        <v>18.37177556809744</v>
       </c>
       <c r="G6">
-        <v>2.087521640643649</v>
+        <v>17.1028843236268</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.919142705433362</v>
       </c>
       <c r="J6">
-        <v>6.112475690984328</v>
+        <v>7.783214520921312</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.43938617776565</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.129091614963043</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +663,48 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.5589938074787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.03117289018398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.86832174529757</v>
+        <v>22.01804697383542</v>
       </c>
       <c r="C7">
-        <v>16.01926934635692</v>
+        <v>16.2810798053332</v>
       </c>
       <c r="D7">
-        <v>7.244727120680627</v>
+        <v>8.679081997282669</v>
       </c>
       <c r="E7">
-        <v>10.41916321902889</v>
+        <v>12.29118210513985</v>
       </c>
       <c r="F7">
-        <v>21.07929028024095</v>
+        <v>18.46595829185341</v>
       </c>
       <c r="G7">
-        <v>2.085529480276464</v>
+        <v>17.17961962902283</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.988820994851319</v>
       </c>
       <c r="J7">
-        <v>6.141925033671447</v>
+        <v>7.75955443638447</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.32520391701544</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.189322217860947</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +713,48 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.54665913618855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.01503641017306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04199716939258</v>
+        <v>24.11864210847611</v>
       </c>
       <c r="C8">
-        <v>17.52709727240834</v>
+        <v>17.78657696022182</v>
       </c>
       <c r="D8">
-        <v>7.728165297461373</v>
+        <v>9.231945281371445</v>
       </c>
       <c r="E8">
-        <v>11.04936874300118</v>
+        <v>13.03506436335091</v>
       </c>
       <c r="F8">
-        <v>21.59164074965907</v>
+        <v>18.90651101075584</v>
       </c>
       <c r="G8">
-        <v>2.076992054779649</v>
+        <v>17.57194703104063</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.285151597113972</v>
       </c>
       <c r="J8">
-        <v>6.27879838727675</v>
+        <v>7.666626339266799</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.836656395128019</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.447912062553215</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +763,48 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.54546325489264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.97112054807276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.83819214492261</v>
+        <v>27.77424655354783</v>
       </c>
       <c r="C9">
-        <v>20.16912330486191</v>
+        <v>20.41491275712717</v>
       </c>
       <c r="D9">
-        <v>8.616145083884033</v>
+        <v>10.23196532471826</v>
       </c>
       <c r="E9">
-        <v>12.23874297837118</v>
+        <v>14.38218689958427</v>
       </c>
       <c r="F9">
-        <v>22.82636967746522</v>
+        <v>19.85798512916681</v>
       </c>
       <c r="G9">
-        <v>2.061092918715988</v>
+        <v>18.5393471569635</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.827537328697646</v>
       </c>
       <c r="J9">
-        <v>6.571599015594481</v>
+        <v>7.529412693291783</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>8.933632262570104</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.927099671904189</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +813,48 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.75635455324574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.99284036558668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.34984596607985</v>
+        <v>30.17757151518198</v>
       </c>
       <c r="C10">
-        <v>21.92068647866715</v>
+        <v>22.12511698194744</v>
       </c>
       <c r="D10">
-        <v>9.227888667751408</v>
+        <v>10.81746977647113</v>
       </c>
       <c r="E10">
-        <v>13.07772807690909</v>
+        <v>15.07485323708836</v>
       </c>
       <c r="F10">
-        <v>23.8769934215589</v>
+        <v>20.43784469369211</v>
       </c>
       <c r="G10">
-        <v>2.049854913203019</v>
+        <v>19.18441049660795</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.188171682329156</v>
       </c>
       <c r="J10">
-        <v>6.801158123475139</v>
+        <v>7.430018341680737</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.282617120932253</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.155036710746314</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +863,48 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.05981216847431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.00473685934206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.43381266743743</v>
+        <v>31.19046999569881</v>
       </c>
       <c r="C11">
-        <v>22.67708922657915</v>
+        <v>22.66141194555725</v>
       </c>
       <c r="D11">
-        <v>9.496799713704425</v>
+        <v>10.2684024282623</v>
       </c>
       <c r="E11">
-        <v>13.45090164306223</v>
+        <v>13.48660427211949</v>
       </c>
       <c r="F11">
-        <v>24.38642607936302</v>
+        <v>19.24132031485664</v>
       </c>
       <c r="G11">
-        <v>2.044821583510183</v>
+        <v>17.8785349154875</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.801884785643032</v>
       </c>
       <c r="J11">
-        <v>6.908649533934397</v>
+        <v>7.133353348479265</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.830631577767933</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.400022043042215</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +913,48 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.23363105390782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.34500919516367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.83599252390109</v>
+        <v>31.55784696312438</v>
       </c>
       <c r="C12">
-        <v>22.95778063971031</v>
+        <v>22.76558497261598</v>
       </c>
       <c r="D12">
-        <v>9.597251283669962</v>
+        <v>9.680071311465898</v>
       </c>
       <c r="E12">
-        <v>13.59094132288661</v>
+        <v>12.05230253556059</v>
       </c>
       <c r="F12">
-        <v>24.58387760043594</v>
+        <v>18.08824828626427</v>
       </c>
       <c r="G12">
-        <v>2.042925395489922</v>
+        <v>16.60479096968158</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.819075342353883</v>
       </c>
       <c r="J12">
-        <v>6.949789759263801</v>
+        <v>6.900501583506784</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7.623167489802807</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.801585552470011</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +963,48 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.30485083539183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.77306921454356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.74974264312443</v>
+        <v>31.46332123979322</v>
       </c>
       <c r="C13">
-        <v>22.89758294727145</v>
+        <v>22.54720518750521</v>
       </c>
       <c r="D13">
-        <v>9.575678957884087</v>
+        <v>9.012821034883009</v>
       </c>
       <c r="E13">
-        <v>13.560838530736</v>
+        <v>10.6470102997925</v>
       </c>
       <c r="F13">
-        <v>24.54115074855963</v>
+        <v>16.88362135614016</v>
       </c>
       <c r="G13">
-        <v>2.043333362164665</v>
+        <v>15.24720530575904</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.981123544594825</v>
       </c>
       <c r="J13">
-        <v>6.94091015565481</v>
+        <v>6.703915999067283</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.595053733466566</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.305918797775539</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1013,48 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.28926851385159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.23273126861897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.46706570937026</v>
+        <v>31.18706307454528</v>
       </c>
       <c r="C14">
-        <v>22.70029654400461</v>
+        <v>22.24538948760816</v>
       </c>
       <c r="D14">
-        <v>9.505091704599385</v>
+        <v>8.504942297742717</v>
       </c>
       <c r="E14">
-        <v>13.46244854071115</v>
+        <v>9.702687736489633</v>
       </c>
       <c r="F14">
-        <v>24.40257946872206</v>
+        <v>16.01674957236651</v>
       </c>
       <c r="G14">
-        <v>2.044665395253226</v>
+        <v>14.25206321091538</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.848200233642815</v>
       </c>
       <c r="J14">
-        <v>6.912025455172982</v>
+        <v>6.585199510745916</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.662003149006094</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.03593890213912</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1063,48 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.23938079274504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.873513102767422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.29284171330141</v>
+        <v>31.01975440621142</v>
       </c>
       <c r="C15">
-        <v>22.57870727539004</v>
+        <v>22.10161133176339</v>
       </c>
       <c r="D15">
-        <v>9.461674628356947</v>
+        <v>8.36354971711364</v>
       </c>
       <c r="E15">
-        <v>13.40201479859959</v>
+        <v>9.47308075846257</v>
       </c>
       <c r="F15">
-        <v>24.31829220647518</v>
+        <v>15.79800719792473</v>
       </c>
       <c r="G15">
-        <v>2.045482536105558</v>
+        <v>13.99575116390918</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.045855473212062</v>
       </c>
       <c r="J15">
-        <v>6.894389360189909</v>
+        <v>6.564984901421076</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.710691030986327</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.980544980339364</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1113,48 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.20953325123197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.795702868896612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.27783814528023</v>
+        <v>30.05425622621585</v>
       </c>
       <c r="C16">
-        <v>21.87044647712816</v>
+        <v>21.43122366074</v>
       </c>
       <c r="D16">
-        <v>9.210123135200938</v>
+        <v>8.216737731839892</v>
       </c>
       <c r="E16">
-        <v>13.05316460338534</v>
+        <v>9.3989489146753</v>
       </c>
       <c r="F16">
-        <v>23.84433556203564</v>
+        <v>15.76201814071075</v>
       </c>
       <c r="G16">
-        <v>2.050185313664536</v>
+        <v>13.92664959484754</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.766851712040982</v>
       </c>
       <c r="J16">
-        <v>6.794194473960657</v>
+        <v>6.64962059974169</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.991667597325243</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.970439097714695</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1163,48 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.04919486556996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.898038118941702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.64024956130238</v>
+        <v>29.45074905994536</v>
       </c>
       <c r="C17">
-        <v>21.42565065102717</v>
+        <v>21.07425440607753</v>
       </c>
       <c r="D17">
-        <v>9.053377596281619</v>
+        <v>8.382054134327911</v>
       </c>
       <c r="E17">
-        <v>12.83693930292047</v>
+        <v>9.838246140311686</v>
       </c>
       <c r="F17">
-        <v>23.56165406027969</v>
+        <v>16.202347124013</v>
       </c>
       <c r="G17">
-        <v>2.053089480499163</v>
+        <v>14.42149223879054</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.042007109356028</v>
       </c>
       <c r="J17">
-        <v>6.733508551210488</v>
+        <v>6.776665715820311</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.17094065163656</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.091938539087043</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1213,48 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.96018399127211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.16675018883937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.26800177126713</v>
+        <v>29.10472686061035</v>
       </c>
       <c r="C18">
-        <v>21.16600944501437</v>
+        <v>20.95676949876348</v>
       </c>
       <c r="D18">
-        <v>8.962340463243528</v>
+        <v>8.839793833396511</v>
       </c>
       <c r="E18">
-        <v>12.7117754916986</v>
+        <v>10.85019371647196</v>
       </c>
       <c r="F18">
-        <v>23.40202758419362</v>
+        <v>17.09895326252299</v>
       </c>
       <c r="G18">
-        <v>2.054767404765714</v>
+        <v>15.44007601688367</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.910382103616915</v>
       </c>
       <c r="J18">
-        <v>6.698892167917522</v>
+        <v>6.954387338006564</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.3022241316562</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.418603408370788</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1263,48 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.91234098358174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.60606993666314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.14101247089506</v>
+        <v>28.99735817777339</v>
       </c>
       <c r="C19">
-        <v>21.0774437510883</v>
+        <v>21.0428011409426</v>
       </c>
       <c r="D19">
-        <v>8.931366639865477</v>
+        <v>9.498219786552472</v>
       </c>
       <c r="E19">
-        <v>12.66926226433332</v>
+        <v>12.32470279833289</v>
       </c>
       <c r="F19">
-        <v>23.34848961145579</v>
+        <v>18.29741580772645</v>
       </c>
       <c r="G19">
-        <v>2.05533685765557</v>
+        <v>16.79199012012457</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.736716047015509</v>
       </c>
       <c r="J19">
-        <v>6.687221407203178</v>
+        <v>7.162869800386444</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8.412337895653712</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.98151273540292</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1313,48 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.89671000454782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.15496170241026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.70869270606935</v>
+        <v>29.56511660255137</v>
       </c>
       <c r="C20">
-        <v>21.47339342010197</v>
+        <v>21.68804851912734</v>
       </c>
       <c r="D20">
-        <v>9.07015489442289</v>
+        <v>10.66271032730126</v>
       </c>
       <c r="E20">
-        <v>12.86003975899552</v>
+        <v>14.88638507989581</v>
       </c>
       <c r="F20">
-        <v>23.59143910253785</v>
+        <v>20.27425613827017</v>
       </c>
       <c r="G20">
-        <v>2.052779558848854</v>
+        <v>18.99770604092074</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.093097959140855</v>
       </c>
       <c r="J20">
-        <v>6.739938851278149</v>
+        <v>7.452633769339384</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.450425161140112</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.091304669915274</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1363,48 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.96931033507796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.9928606262836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.55031881417588</v>
+        <v>31.32555967565698</v>
       </c>
       <c r="C21">
-        <v>22.75839960545191</v>
+        <v>22.97471333408383</v>
       </c>
       <c r="D21">
-        <v>9.525862515673964</v>
+        <v>11.23967229791031</v>
       </c>
       <c r="E21">
-        <v>13.49138294286294</v>
+        <v>15.74291642496181</v>
       </c>
       <c r="F21">
-        <v>24.44315789048209</v>
+        <v>20.99827530226293</v>
       </c>
       <c r="G21">
-        <v>2.044273890973495</v>
+        <v>19.82254334850115</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.388441117943966</v>
       </c>
       <c r="J21">
-        <v>6.920497797889332</v>
+        <v>7.433355320366551</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.99544213338284</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.424011861320679</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1413,48 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.25388561792063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.1492800644609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.70564551717966</v>
+        <v>32.42491167203681</v>
       </c>
       <c r="C22">
-        <v>23.56479397607783</v>
+        <v>23.76794920002801</v>
       </c>
       <c r="D22">
-        <v>9.815648070815921</v>
+        <v>11.55749564137629</v>
       </c>
       <c r="E22">
-        <v>13.89657071078575</v>
+        <v>16.17288662787889</v>
       </c>
       <c r="F22">
-        <v>25.0262785955648</v>
+        <v>21.39262866192</v>
       </c>
       <c r="G22">
-        <v>2.038771408820421</v>
+        <v>20.28675222335829</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.569139463400729</v>
       </c>
       <c r="J22">
-        <v>7.041041978775181</v>
+        <v>7.412508472609418</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.693937212247665</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.583467383879997</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1463,48 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.47143777082518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.2273630009124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.09339850705522</v>
+        <v>31.84271236147502</v>
       </c>
       <c r="C23">
-        <v>23.13744100526969</v>
+        <v>23.3478265803636</v>
       </c>
       <c r="D23">
-        <v>9.661727665653881</v>
+        <v>11.38886777495329</v>
       </c>
       <c r="E23">
-        <v>13.68100692398508</v>
+        <v>15.94470612613567</v>
       </c>
       <c r="F23">
-        <v>24.71262931848451</v>
+        <v>21.18140287218875</v>
       </c>
       <c r="G23">
-        <v>2.04170355786591</v>
+        <v>20.03703383406273</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.47302041533308</v>
       </c>
       <c r="J23">
-        <v>6.976473954144848</v>
+        <v>7.422981134266815</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.854214918953412</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.498707384287449</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1513,48 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.35236041907414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.18419654072888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.67776729207279</v>
+        <v>29.53750400602128</v>
       </c>
       <c r="C24">
-        <v>21.45182113578824</v>
+        <v>21.68528643146483</v>
       </c>
       <c r="D24">
-        <v>9.062572747369375</v>
+        <v>10.72842366059358</v>
       </c>
       <c r="E24">
-        <v>12.84959869548741</v>
+        <v>15.05210099824488</v>
       </c>
       <c r="F24">
-        <v>23.57796428120242</v>
+        <v>20.39824775956749</v>
       </c>
       <c r="G24">
-        <v>2.052919648523068</v>
+        <v>19.13471707257002</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.101734461652605</v>
       </c>
       <c r="J24">
-        <v>6.737030862604894</v>
+        <v>7.476560880293448</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.47495030636674</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.170220969571982</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1563,48 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.96517396073976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.05275445605224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.86045458120171</v>
+        <v>26.83469316275909</v>
       </c>
       <c r="C25">
-        <v>19.4878834287348</v>
+        <v>19.73859224839679</v>
       </c>
       <c r="D25">
-        <v>8.382827796017851</v>
+        <v>9.970913196226851</v>
       </c>
       <c r="E25">
-        <v>11.92271784811379</v>
+        <v>14.0302566627746</v>
       </c>
       <c r="F25">
-        <v>22.46729659434857</v>
+        <v>19.591449418552</v>
       </c>
       <c r="G25">
-        <v>2.065310819641762</v>
+        <v>18.256173593573</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.684818601497311</v>
       </c>
       <c r="J25">
-        <v>6.48982261930911</v>
+        <v>7.56134020224953</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.172010345103839</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.800624275494681</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.6744886915567</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.97451100670976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.65633769049985</v>
+        <v>24.64096224774761</v>
       </c>
       <c r="C2">
-        <v>18.17259344724918</v>
+        <v>18.21907097934189</v>
       </c>
       <c r="D2">
-        <v>9.376232164001522</v>
+        <v>9.360035362817909</v>
       </c>
       <c r="E2">
-        <v>13.22927872956998</v>
+        <v>13.19990495845211</v>
       </c>
       <c r="F2">
-        <v>19.03188205400313</v>
+        <v>19.06055104444758</v>
       </c>
       <c r="G2">
-        <v>17.69152437969325</v>
+        <v>17.00167826526216</v>
       </c>
       <c r="H2">
-        <v>2.362774708982709</v>
+        <v>2.329858570523636</v>
       </c>
       <c r="J2">
-        <v>7.644362570557077</v>
+        <v>8.301516173437347</v>
       </c>
       <c r="K2">
-        <v>9.708004405670154</v>
+        <v>9.755238963960636</v>
       </c>
       <c r="L2">
-        <v>7.516152389284972</v>
+        <v>9.499263333909122</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.918878048683377</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.500318662282375</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -469,48 +475,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.9661899477213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.01902290306958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.06165341915193</v>
+        <v>23.05751067333733</v>
       </c>
       <c r="C3">
-        <v>17.02848681371148</v>
+        <v>16.9925741202383</v>
       </c>
       <c r="D3">
-        <v>8.951503824499191</v>
+        <v>8.933360364694524</v>
       </c>
       <c r="E3">
-        <v>12.65768452471069</v>
+        <v>12.63457192176364</v>
       </c>
       <c r="F3">
-        <v>18.67498302568586</v>
+        <v>18.72523885017226</v>
       </c>
       <c r="G3">
-        <v>17.35968497753274</v>
+        <v>16.69480880871043</v>
       </c>
       <c r="H3">
-        <v>2.134677514772986</v>
+        <v>2.112848995801355</v>
       </c>
       <c r="J3">
-        <v>7.712250278375787</v>
+        <v>8.335515582356409</v>
       </c>
       <c r="K3">
-        <v>10.08529219613439</v>
+        <v>10.10230214417224</v>
       </c>
       <c r="L3">
-        <v>7.316166601770881</v>
+        <v>9.737599699614536</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.257743348891248</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.306125895339322</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -519,48 +531,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.98843379115279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.04728378192737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.02388958946491</v>
+        <v>22.02698731437519</v>
       </c>
       <c r="C4">
-        <v>16.28526082498782</v>
+        <v>16.19494996921156</v>
       </c>
       <c r="D4">
-        <v>8.680594047614679</v>
+        <v>8.661524270782078</v>
       </c>
       <c r="E4">
-        <v>12.29321621849582</v>
+        <v>12.27435181501588</v>
       </c>
       <c r="F4">
-        <v>18.46707405724132</v>
+        <v>18.528424560902</v>
       </c>
       <c r="G4">
-        <v>17.18054654251094</v>
+        <v>16.53112513444146</v>
       </c>
       <c r="H4">
-        <v>1.989630156044552</v>
+        <v>1.974770129364318</v>
       </c>
       <c r="J4">
-        <v>7.75928369710126</v>
+        <v>8.359260887758314</v>
       </c>
       <c r="K4">
-        <v>10.32387624181625</v>
+        <v>10.32131655929948</v>
       </c>
       <c r="L4">
-        <v>7.190023159676365</v>
+        <v>9.894650342874616</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.485078346611895</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.183683833920272</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -569,48 +587,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.01486205927931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.07514665870149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.58623279517504</v>
+        <v>21.59238350829811</v>
       </c>
       <c r="C5">
-        <v>15.97218200069655</v>
+        <v>15.85874014577402</v>
       </c>
       <c r="D5">
-        <v>8.567755437342663</v>
+        <v>8.548387978336686</v>
       </c>
       <c r="E5">
-        <v>12.14141898218434</v>
+        <v>12.1243953736615</v>
       </c>
       <c r="F5">
-        <v>18.38519835983343</v>
+        <v>18.45051516567975</v>
       </c>
       <c r="G5">
-        <v>17.11363167951841</v>
+        <v>16.470489547221</v>
       </c>
       <c r="H5">
-        <v>1.92924688040137</v>
+        <v>1.917269132841037</v>
       </c>
       <c r="J5">
-        <v>7.779741147448664</v>
+        <v>8.369636651325621</v>
       </c>
       <c r="K5">
-        <v>10.42284663839058</v>
+        <v>10.4120714003884</v>
       </c>
       <c r="L5">
-        <v>7.137809491439935</v>
+        <v>9.961326026826377</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.582193575783707</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.133014914631876</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -619,48 +643,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.02869521573091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.08901947846745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.5126684815514</v>
+        <v>21.51933284577597</v>
       </c>
       <c r="C6">
-        <v>15.91958039402103</v>
+        <v>15.80223932782005</v>
       </c>
       <c r="D6">
-        <v>8.548874673197146</v>
+        <v>8.529462987787246</v>
       </c>
       <c r="E6">
-        <v>12.116019436989</v>
+        <v>12.09930835585165</v>
       </c>
       <c r="F6">
-        <v>18.37177556809744</v>
+        <v>18.43771716744128</v>
       </c>
       <c r="G6">
-        <v>17.1028843236268</v>
+        <v>16.46078225322219</v>
       </c>
       <c r="H6">
-        <v>1.919142705433362</v>
+        <v>1.907646189971292</v>
       </c>
       <c r="J6">
-        <v>7.783214520921312</v>
+        <v>8.371401143856877</v>
       </c>
       <c r="K6">
-        <v>10.43938617776565</v>
+        <v>10.42723255879994</v>
       </c>
       <c r="L6">
-        <v>7.129091614963043</v>
+        <v>9.972558661147774</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.598580284226623</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.124555740097789</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -669,48 +699,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.03117289018398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.09147153412481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.01804697383542</v>
+        <v>22.02090650539012</v>
       </c>
       <c r="C7">
-        <v>16.2810798053332</v>
+        <v>16.18445842505212</v>
       </c>
       <c r="D7">
-        <v>8.679081997282669</v>
+        <v>8.66342951648206</v>
       </c>
       <c r="E7">
-        <v>12.29118210513985</v>
+        <v>12.27347850225871</v>
       </c>
       <c r="F7">
-        <v>18.46595829185341</v>
+        <v>18.51309592970808</v>
       </c>
       <c r="G7">
-        <v>17.17961962902283</v>
+        <v>16.61934700823307</v>
       </c>
       <c r="H7">
-        <v>1.988820994851319</v>
+        <v>1.973472251430047</v>
       </c>
       <c r="J7">
-        <v>7.75955443638447</v>
+        <v>8.324524712740358</v>
       </c>
       <c r="K7">
-        <v>10.32520391701544</v>
+        <v>10.31975989222613</v>
       </c>
       <c r="L7">
-        <v>7.189322217860947</v>
+        <v>9.891889429339987</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.486459744370848</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.182418202573543</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -719,48 +755,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.01503641017306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.06517656254143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.11864210847611</v>
+        <v>24.10623927727895</v>
       </c>
       <c r="C8">
-        <v>17.78657696022182</v>
+        <v>17.78701713081156</v>
       </c>
       <c r="D8">
-        <v>9.231945281371445</v>
+        <v>9.225836927265359</v>
       </c>
       <c r="E8">
-        <v>13.03506436335091</v>
+        <v>13.0114439484944</v>
       </c>
       <c r="F8">
-        <v>18.90651101075584</v>
+        <v>18.89681737172256</v>
       </c>
       <c r="G8">
-        <v>17.57194703104063</v>
+        <v>17.18082143744429</v>
       </c>
       <c r="H8">
-        <v>2.285151597113972</v>
+        <v>2.254405322698933</v>
       </c>
       <c r="J8">
-        <v>7.666626339266799</v>
+        <v>8.198542940369169</v>
       </c>
       <c r="K8">
-        <v>9.836656395128019</v>
+        <v>9.864820843405113</v>
       </c>
       <c r="L8">
-        <v>7.447912062553215</v>
+        <v>9.569322913037622</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.028918204934675</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.432220282720711</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -769,48 +811,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.97112054807276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.99294808340021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77424655354783</v>
+        <v>27.73502580041635</v>
       </c>
       <c r="C9">
-        <v>20.41491275712717</v>
+        <v>20.59768637845078</v>
       </c>
       <c r="D9">
-        <v>10.23196532471826</v>
+        <v>10.23356260776664</v>
       </c>
       <c r="E9">
-        <v>14.38218689958427</v>
+        <v>14.34559045129586</v>
       </c>
       <c r="F9">
-        <v>19.85798512916681</v>
+        <v>19.77308204895076</v>
       </c>
       <c r="G9">
-        <v>18.5393471569635</v>
+        <v>18.14939326474309</v>
       </c>
       <c r="H9">
-        <v>2.827537328697646</v>
+        <v>2.769676856970551</v>
       </c>
       <c r="J9">
-        <v>7.529412693291783</v>
+        <v>8.098738921772899</v>
       </c>
       <c r="K9">
-        <v>8.933632262570104</v>
+        <v>9.028778309046421</v>
       </c>
       <c r="L9">
-        <v>7.927099671904189</v>
+        <v>9.036359227776746</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.303974945671793</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.897449152575299</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -819,48 +867,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.99284036558668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.97735853894619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.17757151518198</v>
+        <v>30.11835910863447</v>
       </c>
       <c r="C10">
-        <v>22.12511698194744</v>
+        <v>22.38566853787498</v>
       </c>
       <c r="D10">
-        <v>10.81746977647113</v>
+        <v>10.83974945740917</v>
       </c>
       <c r="E10">
-        <v>15.07485323708836</v>
+        <v>15.03468175266465</v>
       </c>
       <c r="F10">
-        <v>20.43784469369211</v>
+        <v>20.22271268991624</v>
       </c>
       <c r="G10">
-        <v>19.18441049660795</v>
+        <v>19.27073960005394</v>
       </c>
       <c r="H10">
-        <v>3.188171682329156</v>
+        <v>3.109117889708136</v>
       </c>
       <c r="J10">
-        <v>7.430018341680737</v>
+        <v>7.824451028156565</v>
       </c>
       <c r="K10">
-        <v>8.282617120932253</v>
+        <v>8.411316216300117</v>
       </c>
       <c r="L10">
-        <v>8.155036710746314</v>
+        <v>8.681856179084424</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.873412931173058</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.113226101823013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -869,48 +923,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.00473685934206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.89853927221153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.19046999569881</v>
+        <v>31.12304940190777</v>
       </c>
       <c r="C11">
-        <v>22.66141194555725</v>
+        <v>22.80984122432472</v>
       </c>
       <c r="D11">
-        <v>10.2684024282623</v>
+        <v>10.31093323838702</v>
       </c>
       <c r="E11">
-        <v>13.48660427211949</v>
+        <v>13.44243154953866</v>
       </c>
       <c r="F11">
-        <v>19.24132031485664</v>
+        <v>18.91636324746553</v>
       </c>
       <c r="G11">
-        <v>17.8785349154875</v>
+        <v>19.06424714921724</v>
       </c>
       <c r="H11">
-        <v>3.801884785643032</v>
+        <v>3.727278568117518</v>
       </c>
       <c r="J11">
-        <v>7.133353348479265</v>
+        <v>7.231590467456868</v>
       </c>
       <c r="K11">
-        <v>7.830631577767933</v>
+        <v>8.010853847983473</v>
       </c>
       <c r="L11">
-        <v>7.400022043042215</v>
+        <v>8.483024238331945</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.488507718973931</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.349773143535505</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -919,48 +979,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.34500919516367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.16178716569958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.55784696312438</v>
+        <v>31.48820515730654</v>
       </c>
       <c r="C12">
-        <v>22.76558497261598</v>
+        <v>22.81885356261893</v>
       </c>
       <c r="D12">
-        <v>9.680071311465898</v>
+        <v>9.724198358758052</v>
       </c>
       <c r="E12">
-        <v>12.05230253556059</v>
+        <v>11.9988344210626</v>
       </c>
       <c r="F12">
-        <v>18.08824828626427</v>
+        <v>17.74865337584426</v>
       </c>
       <c r="G12">
-        <v>16.60479096968158</v>
+        <v>18.33664770732872</v>
       </c>
       <c r="H12">
-        <v>4.819075342353883</v>
+        <v>4.759191185128437</v>
       </c>
       <c r="J12">
-        <v>6.900501583506784</v>
+        <v>6.942301461611332</v>
       </c>
       <c r="K12">
-        <v>7.623167489802807</v>
+        <v>7.851627903317111</v>
       </c>
       <c r="L12">
-        <v>6.801585552470011</v>
+        <v>8.424330115235518</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.278727908791222</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.748619845283185</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -969,48 +1035,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.77306921454356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.58526696206644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.46332123979322</v>
+        <v>31.39628439719829</v>
       </c>
       <c r="C13">
-        <v>22.54720518750521</v>
+        <v>22.52155418939977</v>
       </c>
       <c r="D13">
-        <v>9.012821034883009</v>
+        <v>9.037744740887387</v>
       </c>
       <c r="E13">
-        <v>10.6470102997925</v>
+        <v>10.57820344507729</v>
       </c>
       <c r="F13">
-        <v>16.88362135614016</v>
+        <v>16.63203580601654</v>
       </c>
       <c r="G13">
-        <v>15.24720530575904</v>
+        <v>16.92638489653156</v>
       </c>
       <c r="H13">
-        <v>5.981123544594825</v>
+        <v>5.935631352755585</v>
       </c>
       <c r="J13">
-        <v>6.703915999067283</v>
+        <v>6.866204638295292</v>
       </c>
       <c r="K13">
-        <v>7.595053733466566</v>
+        <v>7.856880702338442</v>
       </c>
       <c r="L13">
-        <v>6.305918797775539</v>
+        <v>8.438181365819682</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.220645337525726</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.255372896133666</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1019,48 +1091,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.23273126861897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.11723661063918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.18706307454528</v>
+        <v>31.12396542085962</v>
       </c>
       <c r="C14">
-        <v>22.24538948760816</v>
+        <v>22.17020166973861</v>
       </c>
       <c r="D14">
-        <v>8.504942297742717</v>
+        <v>8.507654806533209</v>
       </c>
       <c r="E14">
-        <v>9.702687736489633</v>
+        <v>9.621648662134522</v>
       </c>
       <c r="F14">
-        <v>16.01674957236651</v>
+        <v>15.86963230654475</v>
       </c>
       <c r="G14">
-        <v>14.25206321091538</v>
+        <v>15.62783901857503</v>
       </c>
       <c r="H14">
-        <v>6.848200233642815</v>
+        <v>6.811395337675576</v>
       </c>
       <c r="J14">
-        <v>6.585199510745916</v>
+        <v>6.888770074474877</v>
       </c>
       <c r="K14">
-        <v>7.662003149006094</v>
+        <v>7.931013047683299</v>
       </c>
       <c r="L14">
-        <v>6.03593890213912</v>
+        <v>8.472315597772022</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.262180220343058</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.989215603690076</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1069,48 +1147,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.873513102767422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.83857961587719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01975440621142</v>
+        <v>30.95864453056242</v>
       </c>
       <c r="C15">
-        <v>22.10161133176339</v>
+        <v>22.01681348620829</v>
       </c>
       <c r="D15">
-        <v>8.36354971711364</v>
+        <v>8.35732601965433</v>
       </c>
       <c r="E15">
-        <v>9.47308075846257</v>
+        <v>9.389099616948309</v>
       </c>
       <c r="F15">
-        <v>15.79800719792473</v>
+        <v>15.69391169408954</v>
       </c>
       <c r="G15">
-        <v>13.99575116390918</v>
+        <v>15.18442803356927</v>
       </c>
       <c r="H15">
-        <v>7.045855473212062</v>
+        <v>7.011440261472143</v>
       </c>
       <c r="J15">
-        <v>6.564984901421076</v>
+        <v>6.927444397320162</v>
       </c>
       <c r="K15">
-        <v>7.710691030986327</v>
+        <v>7.975784618523288</v>
       </c>
       <c r="L15">
-        <v>5.980544980339364</v>
+        <v>8.488615916483688</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.302684635678599</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.935592182897886</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1119,48 +1203,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.795702868896612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.792517693488522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.05425622621585</v>
+        <v>30.00284014320566</v>
       </c>
       <c r="C16">
-        <v>21.43122366074</v>
+        <v>21.36586638927909</v>
       </c>
       <c r="D16">
-        <v>8.216737731839892</v>
+        <v>8.182026508600078</v>
       </c>
       <c r="E16">
-        <v>9.3989489146753</v>
+        <v>9.316244421064686</v>
       </c>
       <c r="F16">
-        <v>15.76201814071075</v>
+        <v>15.80258887538516</v>
       </c>
       <c r="G16">
-        <v>13.92664959484754</v>
+        <v>14.19030183009492</v>
       </c>
       <c r="H16">
-        <v>6.766851712040982</v>
+        <v>6.737628630802256</v>
       </c>
       <c r="J16">
-        <v>6.64962059974169</v>
+        <v>7.244188084524902</v>
       </c>
       <c r="K16">
-        <v>7.991667597325243</v>
+        <v>8.219534577702122</v>
       </c>
       <c r="L16">
-        <v>5.970439097714695</v>
+        <v>8.569656950078199</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.557682476219902</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.933018488584531</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1169,48 +1259,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.898038118941702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.995345801039837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.45074905994536</v>
+        <v>29.40442537403549</v>
       </c>
       <c r="C17">
-        <v>21.07425440607753</v>
+        <v>21.04444603300943</v>
       </c>
       <c r="D17">
-        <v>8.382054134327911</v>
+        <v>8.340845593590204</v>
       </c>
       <c r="E17">
-        <v>9.838246140311686</v>
+        <v>9.761871156227832</v>
       </c>
       <c r="F17">
-        <v>16.202347124013</v>
+        <v>16.28219734208222</v>
       </c>
       <c r="G17">
-        <v>14.42149223879054</v>
+        <v>14.26922572276618</v>
       </c>
       <c r="H17">
-        <v>6.042007109356028</v>
+        <v>6.012872156773073</v>
       </c>
       <c r="J17">
-        <v>6.776665715820311</v>
+        <v>7.466526610265128</v>
       </c>
       <c r="K17">
-        <v>8.17094065163656</v>
+        <v>8.376602815429683</v>
       </c>
       <c r="L17">
-        <v>6.091938539087043</v>
+        <v>8.632261689403611</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.720224744241257</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.058278119241878</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1219,48 +1315,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.16675018883937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.28823460761731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.10472686061035</v>
+        <v>29.06036241323552</v>
       </c>
       <c r="C18">
-        <v>20.95676949876348</v>
+        <v>20.99064838624529</v>
       </c>
       <c r="D18">
-        <v>8.839793833396511</v>
+        <v>8.804053371373117</v>
       </c>
       <c r="E18">
-        <v>10.85019371647196</v>
+        <v>10.78295463684905</v>
       </c>
       <c r="F18">
-        <v>17.09895326252299</v>
+        <v>17.16101840481151</v>
       </c>
       <c r="G18">
-        <v>15.44007601688367</v>
+        <v>15.0778876061877</v>
       </c>
       <c r="H18">
-        <v>4.910382103616915</v>
+        <v>4.875878850957658</v>
       </c>
       <c r="J18">
-        <v>6.954387338006564</v>
+        <v>7.669821479819465</v>
       </c>
       <c r="K18">
-        <v>8.3022241316562</v>
+        <v>8.491002237302864</v>
       </c>
       <c r="L18">
-        <v>6.418603408370788</v>
+        <v>8.692519192045456</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.833406095938338</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.386639916691175</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1269,48 +1371,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.60606993666314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.71129703221059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.99735817777339</v>
+        <v>28.95227300273622</v>
       </c>
       <c r="C19">
-        <v>21.0428011409426</v>
+        <v>21.16148291621328</v>
       </c>
       <c r="D19">
-        <v>9.498219786552472</v>
+        <v>9.474694731250331</v>
       </c>
       <c r="E19">
-        <v>12.32470279833289</v>
+        <v>12.26754675084082</v>
       </c>
       <c r="F19">
-        <v>18.29741580772645</v>
+        <v>18.30768499364966</v>
       </c>
       <c r="G19">
-        <v>16.79199012012457</v>
+        <v>16.3215764583142</v>
       </c>
       <c r="H19">
-        <v>3.736716047015509</v>
+        <v>3.689508936137843</v>
       </c>
       <c r="J19">
-        <v>7.162869800386444</v>
+        <v>7.864359633060765</v>
       </c>
       <c r="K19">
-        <v>8.412337895653712</v>
+        <v>8.581388368574141</v>
       </c>
       <c r="L19">
-        <v>6.98151273540292</v>
+        <v>8.754161229358999</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.925118651612572</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.949578994148991</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1319,48 +1427,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.15496170241026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.21956602319946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.56511660255137</v>
+        <v>29.51188902426851</v>
       </c>
       <c r="C20">
-        <v>21.68804851912734</v>
+        <v>21.94513158213183</v>
       </c>
       <c r="D20">
-        <v>10.66271032730126</v>
+        <v>10.66930570501923</v>
       </c>
       <c r="E20">
-        <v>14.88638507989581</v>
+        <v>14.8434347169743</v>
       </c>
       <c r="F20">
-        <v>20.27425613827017</v>
+        <v>20.14038511541094</v>
       </c>
       <c r="G20">
-        <v>18.99770604092074</v>
+        <v>18.67228735425142</v>
       </c>
       <c r="H20">
-        <v>3.093097959140855</v>
+        <v>3.021012693324851</v>
       </c>
       <c r="J20">
-        <v>7.452633769339384</v>
+        <v>8.01183813712478</v>
       </c>
       <c r="K20">
-        <v>8.450425161140112</v>
+        <v>8.579723754556188</v>
       </c>
       <c r="L20">
-        <v>8.091304669915274</v>
+        <v>8.774725409827317</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.986924341405022</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.054329906361239</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1369,48 +1483,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.9928606262836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.9472843472791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.32555967565698</v>
+        <v>31.25290254049401</v>
       </c>
       <c r="C21">
-        <v>22.97471333408383</v>
+        <v>23.2203423457809</v>
       </c>
       <c r="D21">
-        <v>11.23967229791031</v>
+        <v>11.31781621560293</v>
       </c>
       <c r="E21">
-        <v>15.74291642496181</v>
+        <v>15.71860148348603</v>
       </c>
       <c r="F21">
-        <v>20.99827530226293</v>
+        <v>20.50739356533625</v>
       </c>
       <c r="G21">
-        <v>19.82254334850115</v>
+        <v>21.33817566811651</v>
       </c>
       <c r="H21">
-        <v>3.388441117943966</v>
+        <v>3.292420531320976</v>
       </c>
       <c r="J21">
-        <v>7.433355320366551</v>
+        <v>7.278072645315993</v>
       </c>
       <c r="K21">
-        <v>7.99544213338284</v>
+        <v>8.091431804142205</v>
       </c>
       <c r="L21">
-        <v>8.424011861320679</v>
+        <v>8.515700232539796</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.674103006485299</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.369155445791634</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1419,48 +1539,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.1492800644609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.82987264546754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.42491167203681</v>
+        <v>32.33976933543676</v>
       </c>
       <c r="C22">
-        <v>23.76794920002801</v>
+        <v>23.99426806230071</v>
       </c>
       <c r="D22">
-        <v>11.55749564137629</v>
+        <v>11.68426987746655</v>
       </c>
       <c r="E22">
-        <v>16.17288662787889</v>
+        <v>16.1618939256086</v>
       </c>
       <c r="F22">
-        <v>21.39262866192</v>
+        <v>20.65600168395443</v>
       </c>
       <c r="G22">
-        <v>20.28675222335829</v>
+        <v>23.08885684839959</v>
       </c>
       <c r="H22">
-        <v>3.569139463400729</v>
+        <v>3.458033066594315</v>
       </c>
       <c r="J22">
-        <v>7.412508472609418</v>
+        <v>6.832011606019534</v>
       </c>
       <c r="K22">
-        <v>7.693937212247665</v>
+        <v>7.766072303786369</v>
       </c>
       <c r="L22">
-        <v>8.583467383879997</v>
+        <v>8.360630470708857</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.477028727684313</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.516954546157084</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1469,48 +1595,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.2273630009124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.71379979228265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.84271236147502</v>
+        <v>31.76466619276428</v>
       </c>
       <c r="C23">
-        <v>23.3478265803636</v>
+        <v>23.59602863003894</v>
       </c>
       <c r="D23">
-        <v>11.38886777495329</v>
+        <v>11.48236689125039</v>
       </c>
       <c r="E23">
-        <v>15.94470612613567</v>
+        <v>15.92381624285879</v>
       </c>
       <c r="F23">
-        <v>21.18140287218875</v>
+        <v>20.60957284016083</v>
       </c>
       <c r="G23">
-        <v>20.03703383406273</v>
+        <v>21.94731205129394</v>
       </c>
       <c r="H23">
-        <v>3.47302041533308</v>
+        <v>3.370790319458642</v>
       </c>
       <c r="J23">
-        <v>7.422981134266815</v>
+        <v>7.12561934124782</v>
       </c>
       <c r="K23">
-        <v>7.854214918953412</v>
+        <v>7.945553127108338</v>
       </c>
       <c r="L23">
-        <v>8.498707384287449</v>
+        <v>8.443820644483973</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.590423893384878</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.439514437343524</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1519,48 +1651,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.18419654072888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.80117467279443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.53750400602128</v>
+        <v>29.48429650067375</v>
       </c>
       <c r="C24">
-        <v>21.68528643146483</v>
+        <v>21.95104071084678</v>
       </c>
       <c r="D24">
-        <v>10.72842366059358</v>
+        <v>10.73584364031441</v>
       </c>
       <c r="E24">
-        <v>15.05210099824488</v>
+        <v>15.00996687256017</v>
       </c>
       <c r="F24">
-        <v>20.39824775956749</v>
+        <v>20.26100996930523</v>
       </c>
       <c r="G24">
-        <v>19.13471707257002</v>
+        <v>18.78551670555073</v>
       </c>
       <c r="H24">
-        <v>3.101734461652605</v>
+        <v>3.029599594329345</v>
       </c>
       <c r="J24">
-        <v>7.476560880293448</v>
+        <v>8.038544142562369</v>
       </c>
       <c r="K24">
-        <v>8.47495030636674</v>
+        <v>8.599981943850736</v>
       </c>
       <c r="L24">
-        <v>8.170220969571982</v>
+        <v>8.78715572559139</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.007755151946389</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.133332823314403</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1569,48 +1707,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.05275445605224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.00420960832285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.83469316275909</v>
+        <v>26.80290459333564</v>
       </c>
       <c r="C25">
-        <v>19.73859224839679</v>
+        <v>19.88240213803215</v>
       </c>
       <c r="D25">
-        <v>9.970913196226851</v>
+        <v>9.965981906970582</v>
       </c>
       <c r="E25">
-        <v>14.0302566627746</v>
+        <v>13.99540546192178</v>
       </c>
       <c r="F25">
-        <v>19.591449418552</v>
+        <v>19.54763675696845</v>
       </c>
       <c r="G25">
-        <v>18.256173593573</v>
+        <v>17.7461294370249</v>
       </c>
       <c r="H25">
-        <v>2.684818601497311</v>
+        <v>2.634819163902696</v>
       </c>
       <c r="J25">
-        <v>7.56134020224953</v>
+        <v>8.171456257204898</v>
       </c>
       <c r="K25">
-        <v>9.172010345103839</v>
+        <v>9.253815698189062</v>
       </c>
       <c r="L25">
-        <v>7.800624275494681</v>
+        <v>9.174310733263672</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.480896368014278</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.775356469497869</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1619,7 +1763,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.97451100670976</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.98554834474045</v>
       </c>
     </row>
   </sheetData>
